--- a/FIGs/chapter4/env.xlsx
+++ b/FIGs/chapter4/env.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x5651\Desktop\2020硕士毕业论文-徐文远\FIGs\chapter4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9B951-62F3-4DC3-A14F-9100BF57F9C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F02B2-B62C-4D6C-BAA5-C9AA45FA22F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12105" xr2:uid="{8C4E138F-D031-43EA-A9EC-5086CA1E1E9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12105" activeTab="4" xr2:uid="{8C4E138F-D031-43EA-A9EC-5086CA1E1E9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="env" sheetId="1" r:id="rId1"/>
+    <sheet name="matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="dataset" sheetId="3" r:id="rId3"/>
+    <sheet name="rq1" sheetId="4" r:id="rId4"/>
+    <sheet name="rq2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>设备与软件</t>
   </si>
@@ -67,6 +71,111 @@
   </si>
   <si>
     <t>版本为 1.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在漏洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无漏洞</t>
+  </si>
+  <si>
+    <t>真实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP Benchmark v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juliet Test Suite for Java v1.3</t>
+  </si>
+  <si>
+    <t>真实漏洞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无漏洞用例数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于切片预测实验的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例总数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不安全污染流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全污染流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染流总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindSecBugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险污染流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污点分析结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +199,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,32 +252,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8024CDF-45B2-4E12-939E-3C39743BFB7A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -482,36 +651,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,27 +689,27 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -557,4 +726,502 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CF1D4F-EAB9-46BC-A9F7-E64ADD997D0B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F46561C-F877-4B81-A23C-562E66ED39C0}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12">
+        <v>10769</v>
+      </c>
+      <c r="C2" s="12">
+        <v>6377</v>
+      </c>
+      <c r="D2" s="12">
+        <f>B2-C2</f>
+        <v>4392</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3501</v>
+      </c>
+      <c r="F2" s="12">
+        <v>6377</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM(F2:F2)</f>
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5217</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12">
+        <v>550</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3823</v>
+      </c>
+      <c r="G3" s="12">
+        <f>SUM(E3:F3)</f>
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13">
+        <f>SUM(E2:E3)</f>
+        <v>4051</v>
+      </c>
+      <c r="F4" s="13">
+        <f>F2+E3</f>
+        <v>6927</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(E4:F4)</f>
+        <v>10978</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6835E35F-CC95-486D-A08F-C30A9EEDDFCD}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.69081000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.66193000000000002</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.79657999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.67501999999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.64249000000000001</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.78234000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>0.68616999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.64827999999999997</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.78661999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f>AVERAGE(I2:I4)*100</f>
+        <v>68.399999999999977</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:L5" si="0">AVERAGE(J2:J4)*100</f>
+        <v>65.089999999999989</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>78.851333333333343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0.87465000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.90454000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="L8">
+        <v>0.89542999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0.87278999999999995</v>
+      </c>
+      <c r="J9">
+        <v>0.89297000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.88871</v>
+      </c>
+      <c r="L9">
+        <v>0.89083999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0.88765000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.91832999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.88443000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.90105999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f>AVERAGE(I8:I10)*100</f>
+        <v>87.836333333333329</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:L11" si="1">AVERAGE(J8:J10)*100</f>
+        <v>90.527999999999992</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>88.654666666666671</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>89.577666666666673</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D23D5E-1337-43F2-8C80-CA8A1BFCE674}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>243</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>629</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>655</v>
+      </c>
+      <c r="F4">
+        <v>673</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>111</v>
+      </c>
+      <c r="I4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>664</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>AVERAGE(F3:F5)</f>
+        <v>655.33333333333337</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:I6" si="0">AVERAGE(G3:G5)</f>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>92.333333333333329</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FIGs/chapter4/env.xlsx
+++ b/FIGs/chapter4/env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x5651\Desktop\2020硕士毕业论文-徐文远\FIGs\chapter4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F02B2-B62C-4D6C-BAA5-C9AA45FA22F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E31C4-1EDD-4DC7-80DA-2700BA169E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12105" activeTab="4" xr2:uid="{8C4E138F-D031-43EA-A9EC-5086CA1E1E9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12105" activeTab="2" xr2:uid="{8C4E138F-D031-43EA-A9EC-5086CA1E1E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="1" r:id="rId1"/>
@@ -280,24 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,6 +302,24 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,16 +651,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -671,7 +671,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,46 +739,46 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F46561C-F877-4B81-A23C-562E66ED39C0}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,22 +814,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -837,47 +837,47 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>10769</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>6377</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <f>B2-C2</f>
         <v>4392</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>3501</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>6377</v>
       </c>
-      <c r="G2" s="12">
-        <f>SUM(F2:F2)</f>
-        <v>6377</v>
+      <c r="G2" s="6">
+        <f>SUM(E2:F2)</f>
+        <v>9878</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="6">
         <v>5217</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>550</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <v>3823</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <f>SUM(E3:F3)</f>
         <v>4373</v>
       </c>
@@ -886,24 +886,24 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <f>SUM(E2:E3)</f>
         <v>4051</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <f>F2+E3</f>
         <v>6927</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <f>SUM(E4:F4)</f>
         <v>10978</v>
       </c>
@@ -947,16 +947,16 @@
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="9">
         <v>0.68400000000000005</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="9">
         <v>0.65090000000000003</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="9">
         <v>0.78510000000000002</v>
       </c>
       <c r="I2">
@@ -976,16 +976,16 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>0.87839999999999996</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <v>0.90529999999999999</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="10">
         <v>0.88649999999999995</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>0.89580000000000004</v>
       </c>
       <c r="I3">
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D23D5E-1337-43F2-8C80-CA8A1BFCE674}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,14 +1118,14 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1147,10 +1147,10 @@
         <v>92</v>
       </c>
       <c r="F3">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>80</v>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1171,48 +1171,48 @@
         <v>655</v>
       </c>
       <c r="F4">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>85</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F5">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6">
         <f>AVERAGE(F3:F5)</f>
-        <v>655.33333333333337</v>
+        <v>654.66666666666663</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:I6" si="0">AVERAGE(G3:G5)</f>
-        <v>31.666666666666668</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>92.333333333333329</v>
+        <v>79.333333333333329</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1223,5 +1223,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>